--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,10 +812,8 @@
           <t>lechehb</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="E7" t="n">
+        <v>16</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -832,10 +830,8 @@
           <t>تيارت</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0566666666</t>
-        </is>
+      <c r="I7" t="n">
+        <v>566666666</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -853,6 +849,71 @@
         </is>
       </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>نشط</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>STD66D53781</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lecheheb</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Djaafar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ذكر</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ouargla Ouargla</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>البويرة</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0658301420</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>lecheheb.djaafar@univ-ouargla.dz</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2026-02-20 23:16:10</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>نشط</t>
         </is>
